--- a/salida.xlsx
+++ b/salida.xlsx
@@ -846,7 +846,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>frio</t>
+          <t>caliente</t>
         </is>
       </c>
     </row>

--- a/salida.xlsx
+++ b/salida.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -589,16 +589,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.021999999999999888</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.3150000000000001</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.3150000000000001</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.47600000000000003</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.47600000000000003</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
